--- a/Cholera_study_project_2024/data/MHFR_Facilities.xlsx
+++ b/Cholera_study_project_2024/data/MHFR_Facilities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Desktop\Git R project\R_Projects\Cholera_study_project_2024\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Selemani-Document\R_Projects\Cholera_study_project_2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E7E6E8-A99A-4684-9CDC-4AC37C7144DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D552C931-6FCE-4676-95D0-DED8AF536641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
-  <si>
-    <t>CODE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="71">
   <si>
     <t>NAME</t>
   </si>
@@ -50,9 +46,6 @@
     <t>LONGITUDE</t>
   </si>
   <si>
-    <t>NK100019</t>
-  </si>
-  <si>
     <t>Alinafe Community Hospital</t>
   </si>
   <si>
@@ -65,171 +58,114 @@
     <t>34.24292</t>
   </si>
   <si>
-    <t>NK100073</t>
-  </si>
-  <si>
     <t>-13.36846</t>
   </si>
   <si>
     <t>34.27404</t>
   </si>
   <si>
-    <t>NK100114</t>
-  </si>
-  <si>
     <t>-12.7967</t>
   </si>
   <si>
     <t>34.20971</t>
   </si>
   <si>
-    <t>NK100171</t>
-  </si>
-  <si>
     <t>-13.08573</t>
   </si>
   <si>
     <t>34.31474</t>
   </si>
   <si>
-    <t>NK100360</t>
-  </si>
-  <si>
     <t>-12.23405</t>
   </si>
   <si>
     <t>33.99194</t>
   </si>
   <si>
-    <t>NK100550</t>
-  </si>
-  <si>
     <t>-12.43665</t>
   </si>
   <si>
     <t>34.04998</t>
   </si>
   <si>
-    <t>NK100562</t>
-  </si>
-  <si>
     <t>-13.21616</t>
   </si>
   <si>
     <t>34.31136</t>
   </si>
   <si>
-    <t>NK100583</t>
-  </si>
-  <si>
     <t>-12.30938</t>
   </si>
   <si>
     <t>34.0343</t>
   </si>
   <si>
-    <t>NK100597</t>
-  </si>
-  <si>
     <t>-12.7571482</t>
   </si>
   <si>
     <t>34.2177405</t>
   </si>
   <si>
-    <t>NK100704</t>
-  </si>
-  <si>
     <t>-12.62054</t>
   </si>
   <si>
     <t>34.16538</t>
   </si>
   <si>
-    <t>NK100728</t>
-  </si>
-  <si>
     <t>-12.318585</t>
   </si>
   <si>
     <t>33.779585</t>
   </si>
   <si>
-    <t>NK100819</t>
-  </si>
-  <si>
     <t>-13.1816</t>
   </si>
   <si>
     <t>34.25165</t>
   </si>
   <si>
-    <t>NK100991</t>
-  </si>
-  <si>
     <t>-13.06926</t>
   </si>
   <si>
     <t>34.25224</t>
   </si>
   <si>
-    <t>NK101018</t>
-  </si>
-  <si>
     <t>-12.7324996</t>
   </si>
   <si>
     <t>34.1705763</t>
   </si>
   <si>
-    <t>NK101038</t>
-  </si>
-  <si>
     <t>-13.43876</t>
   </si>
   <si>
     <t>34.27365</t>
   </si>
   <si>
-    <t>NK101077</t>
-  </si>
-  <si>
     <t>-13.3066933</t>
   </si>
   <si>
     <t>34.118526</t>
   </si>
   <si>
-    <t>NK101169</t>
-  </si>
-  <si>
     <t>-12.36529</t>
   </si>
   <si>
     <t>34.06552</t>
   </si>
   <si>
-    <t>NK101204</t>
-  </si>
-  <si>
     <t>-12.48023</t>
   </si>
   <si>
     <t>34.10842</t>
   </si>
   <si>
-    <t>NK101534</t>
-  </si>
-  <si>
     <t>-12.499</t>
   </si>
   <si>
     <t>34.154</t>
   </si>
   <si>
-    <t>NK101784</t>
-  </si>
-  <si>
     <t>-12.9242558</t>
   </si>
   <si>
@@ -303,6 +239,12 @@
   </si>
   <si>
     <t>study_status</t>
+  </si>
+  <si>
+    <t>Sani HP</t>
+  </si>
+  <si>
+    <t>Sasani Hf</t>
   </si>
 </sst>
 </file>
@@ -695,23 +637,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EC8D9E-0AC4-4665-9AEC-B7C5777FF3AE}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="12.4140625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,433 +666,402 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
         <v>67</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>-12.521140000000001</v>
+      </c>
+      <c r="D22">
+        <v>34.119100000000003</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>-12.998345</v>
+      </c>
+      <c r="D23">
+        <v>34.22878</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>69</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22">
-        <v>-12.521140000000001</v>
-      </c>
-      <c r="E22">
-        <v>34.119100000000003</v>
-      </c>
-      <c r="F22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>-13.010992999999999</v>
+      </c>
+      <c r="D24">
+        <v>34.296507650000002</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
